--- a/static/Stocsus template.xlsx
+++ b/static/Stocsus template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tom\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msale\PycharmProjects\stocsusFrontend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3BA18E7-39C5-49AF-BC4F-89415341515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B857411-5A37-4CCE-9757-44C20B7E2492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1215" windowWidth="38265" windowHeight="21000" xr2:uid="{EF55AFFD-3122-4A07-AB0D-DA00108DA06C}"/>
+    <workbookView xWindow="5115" yWindow="5100" windowWidth="21600" windowHeight="12300" xr2:uid="{EF55AFFD-3122-4A07-AB0D-DA00108DA06C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>part_no</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>CFR50J2K2</t>
+  </si>
+  <si>
+    <t>PDTD123YT,215</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +400,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883CC929-64BD-441E-85E6-B5466AC1C610}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101020080</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>